--- a/Results/xlsx/RS230016BOS01.xlsx
+++ b/Results/xlsx/RS230016BOS01.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2163,7 +2163,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">       5912</t>
+          <t xml:space="preserve">       8452</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2198,19 +2198,19 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.21                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.25                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-21</t>
+          <t xml:space="preserve">      2021-02-25</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">       5913</t>
+          <t xml:space="preserve">       8453</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2245,19 +2245,19 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.21                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.25                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-21</t>
+          <t xml:space="preserve">      2021-02-25</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">       5832</t>
+          <t xml:space="preserve">       8506</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2292,19 +2292,19 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.20                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.25                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-20</t>
+          <t xml:space="preserve">      2021-02-25</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">       5833</t>
+          <t xml:space="preserve">       8507</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2339,19 +2339,19 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.20                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.25                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-20</t>
+          <t xml:space="preserve">      2021-02-25</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">       6044</t>
+          <t xml:space="preserve">       8547</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2386,19 +2386,19 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.21                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.26                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-21</t>
+          <t xml:space="preserve">      2021-02-26</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">       6045</t>
+          <t xml:space="preserve">       8548</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2433,19 +2433,19 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.21                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.26                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-21</t>
+          <t xml:space="preserve">      2021-02-26</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">       6124</t>
+          <t xml:space="preserve">       8606</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2475,24 +2475,24 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.22                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.26                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-22</t>
+          <t xml:space="preserve">      2021-02-26</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">       6125</t>
+          <t xml:space="preserve">      14688</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.22                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.27                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-22</t>
+          <t xml:space="preserve">      2021-02-27</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">       7304</t>
+          <t xml:space="preserve">      14689</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2569,24 +2569,24 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.23                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.27                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-23</t>
+          <t xml:space="preserve">      2021-02-27</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">       6250</t>
+          <t xml:space="preserve">      14729</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.22                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.28                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-22</t>
+          <t xml:space="preserve">      2021-02-28</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">       6251</t>
+          <t xml:space="preserve">      14730</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2668,64 +2668,957 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.22                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.28                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-22</t>
+          <t xml:space="preserve">      2021-02-28</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t xml:space="preserve">       8646</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.27                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8647</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.27                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      14821</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.28                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      14822</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.28                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      14888</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.03.01                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-03-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      14889</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.03.01                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-03-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5912</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.21                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5913</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.21                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5832</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.20                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5833</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.20                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6044</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.21                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6045</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.21                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6124</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.22                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6125</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.22                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      14970</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.03.01                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-03-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      14971</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.03.01                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-03-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7304</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.23                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6250</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.22                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6251</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.22                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
           <t xml:space="preserve">       7362</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>sa</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">       NULL</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">       NULL</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">         NULL</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">       NULL</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
         <is>
           <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t xml:space="preserve">No PL discounts data for the report date: 2021.02.23                                                                                                                                                                                                            </t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t xml:space="preserve">      2021-02-23</t>
         </is>
       </c>
     </row>
-    <row r="50"/>
-    <row r="51"/>
+    <row r="69"/>
+    <row r="70"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
